--- a/job-portal-frontend/src/docs/Plantilla.xlsx
+++ b/job-portal-frontend/src/docs/Plantilla.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D026F852-EFC8-4826-9685-31C9AC7134A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F10B905F-CE2B-4BA8-B718-FAFA2D4AC73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Profesores" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Por favor no modifiques el encabezado ni agregues columnas.</t>
+  </si>
   <si>
     <t>Nombre</t>
   </si>
@@ -33,20 +36,30 @@
   <si>
     <t>Correo</t>
   </si>
-  <si>
-    <t>Genero_ID_FK</t>
-  </si>
-  <si>
-    <t>Nota: El genero puede ser 1 (Hombre), 2 (Mujer), 3 (Indefinido)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -61,28 +74,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <b/>
+      <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -109,23 +121,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -139,6 +149,305 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="Universidad Fidélitas – WordCamp San José 2022">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD698BEB-2EC6-5CC2-5698-EC38848FD283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6743700" y="2019300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151086</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1294086</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>93609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936B4D66-2911-7A01-A0D2-6146204D6E99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="19727" t="1814" r="21089" b="-1814"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="151086" y="52552"/>
+          <a:ext cx="1143000" cy="724229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>335017</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157655</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3320589" cy="593239"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF44FAE6-95D4-2747-B9FD-C520710695BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="157655"/>
+          <a:ext cx="3320589" cy="593239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CR" sz="1600"/>
+            <a:t>Plantilla de Carga de Usuarios</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CR" sz="1600" baseline="0"/>
+            <a:t> para el </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CR" sz="1600" baseline="0"/>
+            <a:t>Sistema Fidecolab</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CR" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358673</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1314</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1042465" cy="201915"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC773B3-98C1-4C2C-8D7B-883C92405F92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4497121" y="684486"/>
+          <a:ext cx="1042465" cy="201915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CR" sz="700"/>
+            <a:t>II Cuatrimestre</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CR" sz="700" baseline="0"/>
+            <a:t> de 2025</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CR" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>72259</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>117978</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>164225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1DDA548-8C80-63EC-3CDC-B756C4EDC063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="72259" y="6569"/>
+          <a:ext cx="45719" cy="840828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,67 +737,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G3:H7"/>
+  <mergeCells count="2">
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>